--- a/Per BAB/Revisi Pendadaran/Tabel Perbandingan.xlsx
+++ b/Per BAB/Revisi Pendadaran/Tabel Perbandingan.xlsx
@@ -38,15 +38,9 @@
     <t>Judul Penelitian</t>
   </si>
   <si>
-    <t>Perbandingan Kesimpulan</t>
-  </si>
-  <si>
     <t>Peneliti Terdahulu</t>
   </si>
   <si>
-    <t>Hasil Penelitian</t>
-  </si>
-  <si>
     <t>Rancang Bangun Aplikasi Pemesanan Menu Makanan Restoran Berbasis Android</t>
   </si>
   <si>
@@ -613,8 +607,67 @@
     <t>Pada penelitian ini ada dua koordinat, yaitu koordinat awal dan koordinat akhir untuk menentukan waktu yang ditempuh antara satu koordinat awal ke koordinat akhir. Ketika penumpang naik bus maka itu adalah koordinat awal, dan ketika penumpang turun dari bus maka itu adalah koordinat akhir.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Pada penelitian ini juga memiliki koordinat awal dan koordinat akhir pada tahap pengumpulan data untuk menentukan dimana area </t>
+    <t>Pada penelitian ini, titik koordinat hanya diambil atau di deteksi satu kali saja sebagai patokan dimana keadaan darurat tersebut terjadi.</t>
+  </si>
+  <si>
+    <t>Pada penelitian ini ada banyak area yang terbagi-bagi sebagai deteksi koordinat, sehingga area satu dengan yang lain dapat bertabrakan jika terjadi pendeteksian koordinat dikarenakan objek yang kecil dan jarak antar area yang sangat dekat</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pada penelitian ini menggunakan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">framework library volley </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pada aplikasi android untuk berkomunikasi dengan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>webservice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dan dihubungkan menggunakan REST API ke database</t>
+    </r>
+  </si>
+  <si>
+    <t>Perbandingan Penelitian</t>
+  </si>
+  <si>
+    <t>Penelitian yang Dilakukan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pada penelitian ini juga memiliki koordinat awal dan koordinat akhir pada tahap pengumpulan data mapping meja untuk menentukan area deteksi dimana </t>
     </r>
     <r>
       <rPr>
@@ -636,59 +689,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> akan berada.</t>
-    </r>
-  </si>
-  <si>
-    <t>Pada penelitian ini, titik koordinat hanya diambil atau di deteksi satu kali saja sebagai patokan dimana keadaan darurat tersebut terjadi.</t>
-  </si>
-  <si>
-    <t>Pada penelitian ini ada banyak area yang terbagi-bagi sebagai deteksi koordinat, sehingga area satu dengan yang lain dapat bertabrakan jika terjadi pendeteksian koordinat dikarenakan objek yang kecil dan jarak antar area yang sangat dekat</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pada penelitian ini menggunakan </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">framework library volley </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pada aplikasi android untuk berkomunikasi dengan </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>webservice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dan dihubungkan menggunakan REST API ke database</t>
     </r>
   </si>
 </sst>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -1088,10 +1088,10 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="158.4" x14ac:dyDescent="0.3">
@@ -1099,19 +1099,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
         <v>2016</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
@@ -1119,19 +1119,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3">
         <v>2020</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="172.8" x14ac:dyDescent="0.3">
@@ -1139,19 +1139,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3">
         <v>2017</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="129.6" x14ac:dyDescent="0.3">
@@ -1159,19 +1159,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3">
         <v>2015</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -1246,18 +1246,18 @@
     </row>
     <row r="15" spans="2:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="6:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
